--- a/Testdata/Objectrepo/objectrepo.xlsx
+++ b/Testdata/Objectrepo/objectrepo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t xml:space="preserve">pagename</t>
   </si>
@@ -37,19 +37,49 @@
     <t xml:space="preserve">aftterwaittime</t>
   </si>
   <si>
-    <t xml:space="preserve">landingpage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">loginbutton</t>
+    <t xml:space="preserve">landling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[@id='txtUsername']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[@id='txtPassword']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">login_button</t>
   </si>
   <si>
     <t xml:space="preserve">//input[@id='btnLogin']</t>
   </si>
   <si>
-    <t xml:space="preserve">20s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1s</t>
+    <t xml:space="preserve">loginpage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//a[@id='menu_admin_viewAdminModule']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[@id='searchSystemUser_userName']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">searchbutton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[@id='searchBtn']</t>
   </si>
 </sst>
 </file>
@@ -247,7 +277,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -297,44 +327,94 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
